--- a/Assets/StreamingAssets/2_Garden.xlsx
+++ b/Assets/StreamingAssets/2_Garden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524A2BBF-CE99-FC49-A245-18668A97D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E7F0E-EB2D-2A45-A951-908EED69E085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15960" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="110">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nice to meet you, we are—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lai-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>What a fine poem! Though I wonder—why do the lines brim with hesitation and doubt?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I never expected to meet someone here who truly understands poetry.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,15 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">I’m flattered. I’ve merely glanced through a few books.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is you, sir, who—upon seeing the quiet garden scene—could craft a poem so freely. Now that is true talent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Regular</t>
   </si>
   <si>
@@ -274,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If only this manor welcomed more scholars like yourself…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ming-Regular2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Xu Ming.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>appearAt</t>
   </si>
   <si>
@@ -301,22 +272,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We set out from Luoyang and happened to pass through here on our way to Pengze County.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xu… could you be the young master of the manor?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I’m the son of Master Xu, but not the young master.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ming-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I have no interest in government or waterworks.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>My aspirations lie far from inheriting my father’s post.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I once told my father about my dreams. But he… paid them no heed at all!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Why must a son follow exactly in his father’s footsteps?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,22 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I understand your frustration—especially when it's your own beloved family that tries to control your fate.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But Master Xu, as the official in charge of managing the Gong River—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is diligent and devoted, working single-handedly for the welfare of the people.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He is truly a man worthy of admiration.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Perhaps you're right. Maybe I don’t know my father as well as I think.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xu Ming, what are you doing here?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,30 +352,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is my friend, Fu Lai.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Fu Lai—just a humble scholar, invited here by the young master to exchange poems and ideas.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A pleasure to meet you. I’m Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I’ve been waiting for you, Master Fu. There are some essays I wanted to discuss.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(The two chatted warmly as they walked off together.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,6 +401,78 @@
   </si>
   <si>
     <t>Room-Outside2</t>
+  </si>
+  <si>
+    <t>I am Ming.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice to meet you, we are——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What a fine poem! Though I wonder——why do the lines brim with hesitation and doubt?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m flattered. I’ve merely glanced through a few books.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is you, sir, who——upon seeing the quiet garden scene——could craft a poem so freely. Now that is true talent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If only this manor welcomed more scholars like yourself......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could you be the young Lord of the manor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m the son of the Lord, but not the Young Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have no interest in power.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I once told my father about my dreams. But he paid them no heed at all!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I understand your frustration——especially when it's your own beloved family that tries to control your fate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming, what are you doing here?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is my friend, Fu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Fu——just a humble scholar, invited here by the Young Lord to exchange poems and ideas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pleasure to meet you. I’m Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’ve been waiting for you, Fu. There are some essays I wanted to discuss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -890,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -962,10 +949,10 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -973,7 +960,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
@@ -981,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17">
@@ -989,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -998,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>14</v>
@@ -1016,31 +1003,29 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
@@ -1049,16 +1034,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1070,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="34">
@@ -1078,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1087,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1101,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1110,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1121,13 +1106,13 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>17</v>
@@ -1142,35 +1127,35 @@
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="34">
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="34">
@@ -1178,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1187,7 +1172,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
@@ -1201,13 +1186,13 @@
     </row>
     <row r="15" spans="1:16" ht="17">
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1219,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
@@ -1227,16 +1212,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1247,13 +1232,13 @@
     </row>
     <row r="17" spans="1:12" ht="34">
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>17</v>
@@ -1268,35 +1253,35 @@
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="34">
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="34">
@@ -1304,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1313,7 +1298,7 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>14</v>
@@ -1327,19 +1312,19 @@
     </row>
     <row r="22" spans="1:12" ht="34">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1351,15 +1336,15 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1368,7 +1353,7 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1382,16 +1367,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1402,19 +1387,19 @@
     </row>
     <row r="25" spans="1:12" ht="17">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1425,19 +1410,19 @@
     </row>
     <row r="26" spans="1:12" ht="17">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>17</v>
@@ -1452,56 +1437,56 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K28" s="3">
         <v>500</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1512,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -1521,7 +1506,7 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1532,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -1541,7 +1526,7 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1552,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -1561,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1569,19 +1554,19 @@
     </row>
     <row r="33" spans="1:12" ht="17">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>14</v>
@@ -1590,7 +1575,7 @@
         <v>500</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17">
@@ -1598,16 +1583,16 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1615,19 +1600,19 @@
     </row>
     <row r="35" spans="1:12" ht="17">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1635,19 +1620,19 @@
     </row>
     <row r="36" spans="1:12" ht="17">
       <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1655,19 +1640,19 @@
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>17</v>
@@ -1680,16 +1665,16 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>14</v>
@@ -1698,24 +1683,24 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1727,24 +1712,24 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1755,19 +1740,19 @@
     </row>
     <row r="41" spans="1:12" ht="17">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1778,19 +1763,19 @@
     </row>
     <row r="42" spans="1:12" ht="17">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>17</v>
@@ -1805,13 +1790,13 @@
     </row>
     <row r="43" spans="1:12" ht="34">
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="34">
@@ -1819,335 +1804,267 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="2">
-        <v>-500</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="34">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="34">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="17">
       <c r="A47" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="34">
-      <c r="A48" t="s">
-        <v>62</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="17">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="34">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="17">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="34">
+    <row r="51" spans="1:12" ht="17">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="17">
+        <v>37</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" ht="34">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="17">
+        <v>37</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" ht="34">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="17">
+    <row r="54" spans="1:12" ht="34">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
-      </c>
-      <c r="J54" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" ht="34">
-      <c r="A55" t="s">
-        <v>97</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" ht="34">
-      <c r="A56" t="s">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="17">
       <c r="B56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" ht="34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="17">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" ht="34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="17">
       <c r="B58" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" t="s">
-        <v>18</v>
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="17">
-      <c r="B59" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="17">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="17">
-      <c r="B61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Garden.xlsx
+++ b/Assets/StreamingAssets/2_Garden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E7F0E-EB2D-2A45-A951-908EED69E085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E91CDFE-F4F4-224E-86FA-76B84553D9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Just then, we heard a clear, low voice reciting poetry.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Shock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,6 +468,10 @@
   </si>
   <si>
     <t>I’ve been waiting for you, Fu. There are some essays I wanted to discuss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just then, we heard a clear, low voice reciting poetry.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -949,10 +949,10 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -960,7 +960,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
@@ -968,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17">
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -985,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>14</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1020,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1043,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1095,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1184,9 +1184,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17">
+    <row r="15" spans="1:16" ht="34">
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
@@ -1212,10 +1212,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="17" spans="1:12" ht="34">
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="20" spans="1:12" ht="34">
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="22" spans="1:12" ht="34">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17">
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1367,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="25" spans="1:12" ht="17">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1410,13 +1410,13 @@
     </row>
     <row r="26" spans="1:12" ht="17">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -1448,39 +1448,39 @@
     </row>
     <row r="28" spans="1:12" ht="17">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="K28" s="3">
         <v>500</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="33" spans="1:12" ht="17">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -1575,7 +1575,7 @@
         <v>500</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17">
@@ -1583,10 +1583,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -1600,13 +1600,13 @@
     </row>
     <row r="35" spans="1:12" ht="17">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="36" spans="1:12" ht="17">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -1665,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
         <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -1683,18 +1683,18 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -1712,18 +1712,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="41" spans="1:12" ht="17">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="42" spans="1:12" ht="17">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
         <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="43" spans="1:12" ht="34">
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -1804,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -1818,13 +1818,13 @@
     </row>
     <row r="45" spans="1:12" ht="34">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -1839,18 +1839,18 @@
         <v>500</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="34">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="48" spans="1:12" ht="34">
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="49" spans="1:12" ht="17">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -1918,18 +1918,18 @@
         <v>500</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="51" spans="1:12" ht="17">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="52" spans="1:12" ht="34">
       <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
         <v>79</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" t="s">
-        <v>80</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="54" spans="1:12" ht="34">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="55" spans="1:12" ht="34">
       <c r="B55" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="56" spans="1:12" ht="17">
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" t="s">
         <v>37</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="57" spans="1:12" ht="17">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
         <v>37</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="58" spans="1:12" ht="17">
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E58" t="s">
         <v>37</v>
